--- a/Carly Test Plan.xlsx
+++ b/Carly Test Plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Quality Assurance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvanvels\Documents\GitHub\Carly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B824F791-A047-4655-B668-13457E186688}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977DF60C-A570-4ADF-8AE1-13244237610F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{57BAED42-6E74-4F09-B3DE-6F05DB4DA166}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>INPUT</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>O-EVENT-IND</t>
+  </si>
+  <si>
+    <t>Added this comment</t>
   </si>
 </sst>
 </file>
@@ -101,9 +104,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -419,21 +425,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55A4A05-52AA-4AE0-9BDB-7B9AAAD38AC4}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -600,7 +606,16 @@
         <v>TRUE</v>
       </c>
     </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A10:B10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Carly Test Plan.xlsx
+++ b/Carly Test Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvanvels\Documents\GitHub\Carly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977DF60C-A570-4ADF-8AE1-13244237610F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2D37E8-3012-416D-82B9-A8396CC0EEE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{57BAED42-6E74-4F09-B3DE-6F05DB4DA166}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>INPUT</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Added this comment</t>
+  </si>
+  <si>
+    <t>Added another comment</t>
   </si>
 </sst>
 </file>
@@ -425,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55A4A05-52AA-4AE0-9BDB-7B9AAAD38AC4}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -612,6 +615,11 @@
       </c>
       <c r="B10" s="2"/>
     </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A10:B10"/>

--- a/Carly Test Plan.xlsx
+++ b/Carly Test Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvanvels\Documents\GitHub\Carly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2D37E8-3012-416D-82B9-A8396CC0EEE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD074E6C-6849-4C3E-8041-ABE066A23EE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{57BAED42-6E74-4F09-B3DE-6F05DB4DA166}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>INPUT</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Added another comment</t>
+  </si>
+  <si>
+    <t>Added another another comment</t>
   </si>
 </sst>
 </file>
@@ -428,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55A4A05-52AA-4AE0-9BDB-7B9AAAD38AC4}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -620,6 +623,11 @@
         <v>11</v>
       </c>
     </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A10:B10"/>
